--- a/Excel2Json/Test/ai_object.xlsx
+++ b/Excel2Json/Test/ai_object.xlsx
@@ -137,74 +137,70 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="158">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>飞行速度</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>弹射次数</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>弹射范围</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>钢铁侠普攻子弹飞1</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>钢铁侠普攻子弹飞2</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>钢铁侠普攻子弹飞3</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero109_Skill_002_PT</t>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>销毁时特效</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -252,7 +248,7 @@
       </rPr>
       <t>：穿透</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -291,7 +287,7 @@
       <t xml:space="preserve">.弹射
 </t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
@@ -307,13 +303,13 @@
   </si>
   <si>
     <t>是否返回</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>是否碰触消失
 0 不消失
 1 消失</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -329,14 +325,11 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
@@ -397,7 +390,7 @@
       </rPr>
       <t>arget_filter</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -415,37 +408,37 @@
       <t>：表明碰到即生效
 非0 : 表明达到指定值才检测碰撞</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>AI形状
 1：圆形
 2：矩形</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>shape</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>形状参数1
 1：圆形：半径
 2：矩形：长度</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>shape_param1</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>shape_param2</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>形状参数2
 1：圆形：无
 2：矩形：宽度</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -716,55 +709,19 @@
       </rPr>
       <t>中立</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>delay</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>vector</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>1231101</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>红骷髅普攻</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -790,11 +747,11 @@
       </rPr>
       <t>_PT</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero123_Skill_002_boom</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -810,45 +767,45 @@
       </rPr>
       <t>fx_life_time</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>特效延迟播放
 可超出动作长度
 非数组：可用于延迟
 数组：用于非平均间隔</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero123_Skill_001PT</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero105_PT</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero105_PT</t>
   </si>
   <si>
     <t>指示器特效</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero123_Skill_002_begin</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>destroy_sfx</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>indicator_sfx</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>当前朝向偏移位置</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -864,31 +821,31 @@
       </rPr>
       <t>orward_offset</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>1230101</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>红骷髅技能1</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>1230201</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>红骷髅技能2</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>红骷髅技能2-2</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>蜘蛛侠技能1</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -904,15 +861,15 @@
       </rPr>
       <t>-2</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>303冲撞</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -932,35 +889,35 @@
 填：控制特效的播放时长
 不填：直接取AI持续时间</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Npc301_skillbegin</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>远程兵普攻</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>远程兵瞄准</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>远程兵3连射</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Npc301_PT2</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Npc301_PT2</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>旋棍兵跳跃</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -976,23 +933,23 @@
       </rPr>
       <t>_vec</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>对同一个目标攻击次数</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Npc_999</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>蛛丝飞踢伤害</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>地雷爆炸</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1018,7 +975,7 @@
       </rPr>
       <t>_boom</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1035,19 +992,19 @@
       </rPr>
       <t>skill_effect</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero105_EMPTY</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>蛛丝飞踢</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>弹射</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1064,7 +1021,7 @@
       </rPr>
       <t>(目前没用)</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1102,7 +1059,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1120,57 +1077,53 @@
       <t>3：相对角色位置
 (目前没用)</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>减伤
 (目前没用)</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>减伤次数
 (目前没用)</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>弹射</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>黑寡妇一闪</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero102_Skill001_PT 1</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector&lt;int&gt;</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>灭霸技能1抓取</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero105_PT</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>attack_number</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero110_passive01_PT</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero110_Skill001_new_PT</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero110_1_PT</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1197,7 +1150,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1214,59 +1167,59 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>钢铁侠技能1</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>钢铁侠大招左手线</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>钢铁侠大招右手线</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>奇异博士，被动火球</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>奇异博士，1技能飞剑</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>奇异博士，普攻</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>美队冲锋</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero109_Skill_001</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>美队1技能,飞盾</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>奇异博士，瞬移</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero110_teleport_PT</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>skill_script</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>技能脚本</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1283,31 +1236,15 @@
       </rPr>
       <t>，大招</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>技能模板参数</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ector&lt;string&gt;</t>
-    </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>script_params</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>Hero110Skill03</t>
@@ -1320,22 +1257,6 @@
   </si>
   <si>
     <t>总时长，减CD百分比，法阵检测频率，减速buff_id,眩晕skill_id,减CD技能IDs</t>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tring</t>
-    </r>
-    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1351,59 +1272,59 @@
       </rPr>
       <t>21突刺</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>黑寡妇-催泪瓦斯</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>Hero102Skill01</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero102_Skill001_PT</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>魔法球</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Npc322_skill_001_PT</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>弓箭手普攻</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>jian</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>箭雨1</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Npc323_skill_001</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Npc323_skill_001_warning</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>箭雨1-1</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>蓄力直射</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Npc323_skill_002_PT</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero102_Skill001_bao|FX_Hero102_Skill001|1000|5000|102010102|102010103|102010101</t>
@@ -1413,19 +1334,19 @@
   </si>
   <si>
     <t>钢铁侠冲刺-技能2</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>钢铁侠放火-技能2</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>Fx_Hero104_Firing_C_Spine</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>8000|50000|5|110100102|110100101|110010101</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1443,7 +1364,7 @@
       <t>-1为永久
 如果填了特效延迟播放，那么必须大于他</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>AI物件类型
@@ -1456,34 +1377,116 @@
 7：拉取类（打中目标，拉过去）
 8：随目标移动
 9：拉取类2（选位置，拉过去）</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[100]</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;32</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;int&gt;;10</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vector&lt;int&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;10</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tring;32</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ector&lt;string;32&gt;;10</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1873,6 +1876,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1956,65 +1966,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -2022,68 +2032,62 @@
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2096,74 +2100,74 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2194,7 +2198,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -2217,9 +2221,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2285,8 +2286,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2803,7 +2816,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2846,97 +2859,97 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="110" t="s">
-        <v>157</v>
+        <v>16</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="107" t="s">
+        <v>151</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="110" t="s">
-        <v>156</v>
+      <c r="I1" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="107" t="s">
+        <v>150</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="55" t="s">
-        <v>88</v>
+        <v>43</v>
+      </c>
+      <c r="M1" s="54" t="s">
+        <v>85</v>
       </c>
       <c r="N1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="27" t="s">
-        <v>48</v>
-      </c>
       <c r="P1" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="47" t="s">
-        <v>68</v>
+        <v>49</v>
+      </c>
+      <c r="Q1" s="46" t="s">
+        <v>65</v>
       </c>
       <c r="R1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X1" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z1" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z1" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA1" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB1" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC1" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="AA1" s="63" t="s">
+      <c r="AD1" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="AB1" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC1" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD1" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE1" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF1" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG1" s="83" t="s">
-        <v>128</v>
+      <c r="AE1" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF1" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG1" s="81" t="s">
+        <v>124</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -2956,10 +2969,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>5</v>
@@ -2968,37 +2981,37 @@
         <v>6</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="50" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>13</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="50" t="s">
-        <v>78</v>
+        <v>26</v>
+      </c>
+      <c r="T2" s="49" t="s">
+        <v>75</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>5</v>
@@ -3010,19 +3023,19 @@
         <v>5</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="50" t="s">
-        <v>78</v>
+        <v>19</v>
+      </c>
+      <c r="Y2" s="49" t="s">
+        <v>75</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>5</v>
@@ -3034,72 +3047,72 @@
         <v>5</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG2" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG2" s="82" t="s">
         <v>5</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:34" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
+      <c r="B3" s="111" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="111" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="111" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="111" t="s">
+        <v>153</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="J3" s="111" t="s">
+        <v>154</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="52" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="M3" s="51" t="s">
+        <v>20</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>7</v>
@@ -3108,140 +3121,140 @@
         <v>7</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="Z3" s="111" t="s">
+        <v>153</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF3" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG3" s="85" t="s">
-        <v>129</v>
+      <c r="AE3" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF3" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG3" s="111" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="AA4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="R4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE4" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF4" s="81" t="s">
+      <c r="AE4" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF4" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG4" s="83" t="s">
         <v>125</v>
-      </c>
-      <c r="AG4" s="86" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:34" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>102010101</v>
       </c>
-      <c r="B5" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>139</v>
+      <c r="B5" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>133</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -3300,25 +3313,25 @@
       <c r="AE5" s="4">
         <v>102010101</v>
       </c>
-      <c r="AF5" s="88" t="s">
-        <v>138</v>
+      <c r="AF5" s="85" t="s">
+        <v>132</v>
       </c>
       <c r="AG5" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:34" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>102100101</v>
       </c>
-      <c r="B6" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>104</v>
+      <c r="B6" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>101</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
@@ -3384,228 +3397,228 @@
         <v>102100101</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="73">
+    <row r="7" spans="1:34" s="108" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="108">
         <v>109020101</v>
       </c>
-      <c r="B7" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="73">
+      <c r="B7" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="108">
         <v>4</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="108">
         <v>2</v>
       </c>
-      <c r="H7" s="73">
-        <v>0</v>
-      </c>
-      <c r="I7" s="73">
-        <v>200</v>
-      </c>
-      <c r="J7" s="73">
-        <v>0</v>
-      </c>
-      <c r="K7" s="73">
-        <v>240</v>
-      </c>
-      <c r="L7" s="73">
+      <c r="H7" s="108">
+        <v>0</v>
+      </c>
+      <c r="I7" s="108">
+        <v>400</v>
+      </c>
+      <c r="J7" s="108">
+        <v>0</v>
+      </c>
+      <c r="K7" s="108">
+        <v>433</v>
+      </c>
+      <c r="L7" s="109">
         <v>70</v>
       </c>
-      <c r="M7" s="73">
-        <v>1</v>
-      </c>
-      <c r="N7" s="73">
+      <c r="M7" s="108">
+        <v>1</v>
+      </c>
+      <c r="N7" s="108">
         <v>2</v>
       </c>
-      <c r="O7" s="73">
+      <c r="O7" s="108">
         <v>2500</v>
       </c>
-      <c r="P7" s="73">
+      <c r="P7" s="108">
         <v>1500</v>
       </c>
-      <c r="R7" s="73">
-        <v>0</v>
-      </c>
-      <c r="S7" s="73">
-        <v>0</v>
-      </c>
-      <c r="U7" s="73">
-        <v>0</v>
-      </c>
-      <c r="V7" s="73">
-        <v>0</v>
-      </c>
-      <c r="W7" s="73">
-        <v>0</v>
-      </c>
-      <c r="X7" s="73">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="73">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="73">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="73">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="73">
+      <c r="R7" s="108">
+        <v>0</v>
+      </c>
+      <c r="S7" s="108">
+        <v>0</v>
+      </c>
+      <c r="U7" s="108">
+        <v>0</v>
+      </c>
+      <c r="V7" s="108">
+        <v>0</v>
+      </c>
+      <c r="W7" s="108">
+        <v>0</v>
+      </c>
+      <c r="X7" s="108">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="108">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="108">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="108">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="108">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="108">
         <v>109020101</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="73">
+    <row r="8" spans="1:34" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="71">
         <v>109010101</v>
       </c>
-      <c r="B8" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="73">
+      <c r="B8" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="71">
         <v>5</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="72">
         <v>2</v>
       </c>
-      <c r="H8" s="73">
+      <c r="H8" s="71">
         <v>14000</v>
       </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74">
-        <v>0</v>
-      </c>
-      <c r="K8" s="73">
+      <c r="I8" s="72"/>
+      <c r="J8" s="72">
+        <v>0</v>
+      </c>
+      <c r="K8" s="71">
         <v>366</v>
       </c>
-      <c r="L8" s="73">
-        <v>0</v>
-      </c>
-      <c r="N8" s="73">
-        <v>1</v>
-      </c>
-      <c r="O8" s="73">
+      <c r="L8" s="71">
+        <v>0</v>
+      </c>
+      <c r="N8" s="71">
+        <v>1</v>
+      </c>
+      <c r="O8" s="71">
         <v>1500</v>
       </c>
-      <c r="P8" s="73">
-        <v>0</v>
-      </c>
-      <c r="R8" s="75">
-        <v>0</v>
-      </c>
-      <c r="S8" s="75">
-        <v>0</v>
-      </c>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75">
-        <v>1</v>
-      </c>
-      <c r="V8" s="75">
+      <c r="P8" s="71">
+        <v>0</v>
+      </c>
+      <c r="R8" s="73">
+        <v>0</v>
+      </c>
+      <c r="S8" s="73">
+        <v>0</v>
+      </c>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73">
+        <v>1</v>
+      </c>
+      <c r="V8" s="73">
         <v>3</v>
       </c>
-      <c r="W8" s="75">
+      <c r="W8" s="73">
         <v>5000</v>
       </c>
-      <c r="X8" s="75">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="75"/>
-      <c r="AA8" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="73">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="75">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="73">
+      <c r="X8" s="73">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="73"/>
+      <c r="AA8" s="71">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="71">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="73">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="73">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="71">
         <v>109010101</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="62">
+    <row r="9" spans="1:34" s="61" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="61">
         <v>110000101</v>
       </c>
-      <c r="B9" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="62">
-        <v>1</v>
-      </c>
-      <c r="G9" s="62">
+      <c r="B9" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="61">
+        <v>1</v>
+      </c>
+      <c r="G9" s="61">
         <v>2</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="61">
         <v>20000</v>
       </c>
-      <c r="J9" s="62">
-        <v>0</v>
-      </c>
-      <c r="K9" s="62">
+      <c r="J9" s="61">
+        <v>0</v>
+      </c>
+      <c r="K9" s="61">
         <v>350</v>
       </c>
-      <c r="L9" s="62">
-        <v>0</v>
-      </c>
-      <c r="M9" s="62">
-        <v>1</v>
-      </c>
-      <c r="N9" s="62">
+      <c r="L9" s="61">
+        <v>0</v>
+      </c>
+      <c r="M9" s="61">
+        <v>1</v>
+      </c>
+      <c r="N9" s="61">
         <v>2</v>
       </c>
-      <c r="O9" s="62">
+      <c r="O9" s="61">
         <v>500</v>
       </c>
-      <c r="P9" s="62">
+      <c r="P9" s="61">
         <v>300</v>
       </c>
-      <c r="R9" s="62">
-        <v>0</v>
-      </c>
-      <c r="S9" s="62">
-        <v>1</v>
-      </c>
-      <c r="U9" s="62">
-        <v>0</v>
-      </c>
-      <c r="V9" s="62">
-        <v>0</v>
-      </c>
-      <c r="W9" s="62">
-        <v>0</v>
-      </c>
-      <c r="X9" s="62">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="62">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="62">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="62">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="62">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="62">
+      <c r="R9" s="61">
+        <v>0</v>
+      </c>
+      <c r="S9" s="61">
+        <v>1</v>
+      </c>
+      <c r="U9" s="61">
+        <v>0</v>
+      </c>
+      <c r="V9" s="61">
+        <v>0</v>
+      </c>
+      <c r="W9" s="61">
+        <v>0</v>
+      </c>
+      <c r="X9" s="61">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="61">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="61">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="61">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="61">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="61">
         <v>110010101</v>
       </c>
     </row>
@@ -3613,11 +3626,11 @@
       <c r="A10" s="4">
         <v>110020101</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="79" t="s">
-        <v>124</v>
+      <c r="B10" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>120</v>
       </c>
       <c r="F10" s="12">
         <v>1</v>
@@ -3688,11 +3701,11 @@
       <c r="A11" s="4">
         <v>110900102</v>
       </c>
-      <c r="B11" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>109</v>
+      <c r="B11" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>105</v>
       </c>
       <c r="F11" s="12">
         <v>2</v>
@@ -3759,77 +3772,77 @@
         <v>110900102</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="62">
+    <row r="12" spans="1:34" s="61" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="61">
         <v>110010101</v>
       </c>
-      <c r="B12" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="62">
-        <v>1</v>
-      </c>
-      <c r="G12" s="62">
+      <c r="B12" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="61">
+        <v>1</v>
+      </c>
+      <c r="G12" s="61">
         <v>2</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="61">
         <v>20000</v>
       </c>
-      <c r="J12" s="62">
-        <v>0</v>
-      </c>
-      <c r="K12" s="62">
+      <c r="J12" s="61">
+        <v>0</v>
+      </c>
+      <c r="K12" s="61">
         <v>550</v>
       </c>
-      <c r="L12" s="62">
-        <v>0</v>
-      </c>
-      <c r="M12" s="62">
-        <v>1</v>
-      </c>
-      <c r="N12" s="62">
+      <c r="L12" s="61">
+        <v>0</v>
+      </c>
+      <c r="M12" s="61">
+        <v>1</v>
+      </c>
+      <c r="N12" s="61">
         <v>2</v>
       </c>
-      <c r="O12" s="62">
+      <c r="O12" s="61">
         <v>500</v>
       </c>
-      <c r="P12" s="62">
+      <c r="P12" s="61">
         <v>300</v>
       </c>
-      <c r="R12" s="62">
-        <v>1</v>
-      </c>
-      <c r="S12" s="62">
-        <v>0</v>
-      </c>
-      <c r="U12" s="62">
-        <v>0</v>
-      </c>
-      <c r="V12" s="62">
-        <v>0</v>
-      </c>
-      <c r="W12" s="62">
-        <v>0</v>
-      </c>
-      <c r="X12" s="62">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="62">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="62">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="62">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="62">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="62">
+      <c r="R12" s="61">
+        <v>1</v>
+      </c>
+      <c r="S12" s="61">
+        <v>0</v>
+      </c>
+      <c r="U12" s="61">
+        <v>0</v>
+      </c>
+      <c r="V12" s="61">
+        <v>0</v>
+      </c>
+      <c r="W12" s="61">
+        <v>0</v>
+      </c>
+      <c r="X12" s="61">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="61">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="61">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="61">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="61">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="61">
         <v>110010101</v>
       </c>
     </row>
@@ -3837,11 +3850,11 @@
       <c r="A13" s="4">
         <v>110100101</v>
       </c>
-      <c r="B13" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="79" t="s">
-        <v>124</v>
+      <c r="B13" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>120</v>
       </c>
       <c r="F13" s="12">
         <v>3</v>
@@ -3908,13 +3921,13 @@
         <v>110020101</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG13" s="95" t="s">
-        <v>155</v>
+        <v>126</v>
+      </c>
+      <c r="AG13" s="92" t="s">
+        <v>149</v>
       </c>
       <c r="AH13" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:34" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
@@ -3922,10 +3935,10 @@
         <v>104000101</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>112</v>
+        <v>9</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>108</v>
       </c>
       <c r="F14" s="12">
         <v>1</v>
@@ -3997,10 +4010,10 @@
         <v>104000102</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="69" t="s">
-        <v>112</v>
+        <v>10</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>108</v>
       </c>
       <c r="F15" s="12">
         <v>1</v>
@@ -4072,10 +4085,10 @@
         <v>104000103</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="69" t="s">
-        <v>113</v>
+        <v>11</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>109</v>
       </c>
       <c r="F16" s="12">
         <v>1</v>
@@ -4146,10 +4159,10 @@
       <c r="A17" s="4">
         <v>104010101</v>
       </c>
-      <c r="B17" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="69"/>
+      <c r="B17" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="67"/>
       <c r="F17" s="12">
         <v>1</v>
       </c>
@@ -4217,156 +4230,156 @@
         <v>104010101</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="92" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="92">
+    <row r="18" spans="1:31" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="89">
         <v>104020101</v>
       </c>
-      <c r="B18" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="92">
+      <c r="B18" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="89">
         <v>4</v>
       </c>
-      <c r="G18" s="93">
+      <c r="G18" s="90">
         <v>2</v>
       </c>
-      <c r="H18" s="92">
-        <v>0</v>
-      </c>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93">
-        <v>0</v>
-      </c>
-      <c r="K18" s="92">
+      <c r="H18" s="89">
+        <v>0</v>
+      </c>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90">
+        <v>0</v>
+      </c>
+      <c r="K18" s="89">
         <v>1200</v>
       </c>
-      <c r="L18" s="92">
+      <c r="L18" s="89">
         <v>70</v>
       </c>
-      <c r="M18" s="92">
-        <v>1</v>
-      </c>
-      <c r="N18" s="92">
+      <c r="M18" s="89">
+        <v>1</v>
+      </c>
+      <c r="N18" s="89">
         <v>2</v>
       </c>
-      <c r="O18" s="92">
+      <c r="O18" s="89">
         <v>2500</v>
       </c>
-      <c r="P18" s="92">
+      <c r="P18" s="89">
         <v>1500</v>
       </c>
-      <c r="R18" s="94">
-        <v>1</v>
-      </c>
-      <c r="S18" s="92">
-        <v>0</v>
-      </c>
-      <c r="T18" s="94"/>
-      <c r="U18" s="92">
-        <v>0</v>
-      </c>
-      <c r="V18" s="92">
-        <v>0</v>
-      </c>
-      <c r="W18" s="92">
-        <v>0</v>
-      </c>
-      <c r="X18" s="92">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="94"/>
-      <c r="AA18" s="92">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="92">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="92">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="92">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="92">
+      <c r="R18" s="91">
+        <v>1</v>
+      </c>
+      <c r="S18" s="89">
+        <v>0</v>
+      </c>
+      <c r="T18" s="91"/>
+      <c r="U18" s="89">
+        <v>0</v>
+      </c>
+      <c r="V18" s="89">
+        <v>0</v>
+      </c>
+      <c r="W18" s="89">
+        <v>0</v>
+      </c>
+      <c r="X18" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="91"/>
+      <c r="AA18" s="89">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="89">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="89">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="89">
         <v>104020101</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="92" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="92">
+    <row r="19" spans="1:31" s="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="89">
         <v>104020102</v>
       </c>
-      <c r="B19" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="92" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="92">
+      <c r="B19" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="89">
         <v>3</v>
       </c>
-      <c r="G19" s="93">
+      <c r="G19" s="90">
         <v>2</v>
       </c>
-      <c r="H19" s="92">
-        <v>0</v>
-      </c>
-      <c r="I19" s="93">
+      <c r="H19" s="89">
+        <v>0</v>
+      </c>
+      <c r="I19" s="90">
         <v>3000</v>
       </c>
-      <c r="J19" s="93">
-        <v>0</v>
-      </c>
-      <c r="K19" s="92">
+      <c r="J19" s="90">
+        <v>0</v>
+      </c>
+      <c r="K19" s="89">
         <v>3000</v>
       </c>
-      <c r="L19" s="92">
+      <c r="L19" s="89">
         <v>1000</v>
       </c>
-      <c r="M19" s="92">
+      <c r="M19" s="89">
         <v>2</v>
       </c>
-      <c r="N19" s="92">
+      <c r="N19" s="89">
         <v>2</v>
       </c>
-      <c r="O19" s="92">
+      <c r="O19" s="89">
         <v>500</v>
       </c>
-      <c r="P19" s="92">
+      <c r="P19" s="89">
         <v>1000</v>
       </c>
-      <c r="R19" s="94">
-        <v>1</v>
-      </c>
-      <c r="S19" s="92">
-        <v>0</v>
-      </c>
-      <c r="T19" s="94"/>
-      <c r="U19" s="92">
-        <v>0</v>
-      </c>
-      <c r="V19" s="92">
-        <v>0</v>
-      </c>
-      <c r="W19" s="92">
-        <v>0</v>
-      </c>
-      <c r="X19" s="92">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="94"/>
-      <c r="AA19" s="92">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="92">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="92">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="92">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="92">
+      <c r="R19" s="91">
+        <v>1</v>
+      </c>
+      <c r="S19" s="89">
+        <v>0</v>
+      </c>
+      <c r="T19" s="91"/>
+      <c r="U19" s="89">
+        <v>0</v>
+      </c>
+      <c r="V19" s="89">
+        <v>0</v>
+      </c>
+      <c r="W19" s="89">
+        <v>0</v>
+      </c>
+      <c r="X19" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="91"/>
+      <c r="AA19" s="89">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="89">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="89">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="89">
         <v>104020102</v>
       </c>
     </row>
@@ -4374,10 +4387,10 @@
       <c r="A20" s="4">
         <v>104030101</v>
       </c>
-      <c r="B20" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="69"/>
+      <c r="B20" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="67"/>
       <c r="F20" s="12">
         <v>1</v>
       </c>
@@ -4447,10 +4460,10 @@
       <c r="A21" s="4">
         <v>104030102</v>
       </c>
-      <c r="B21" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="69"/>
+      <c r="B21" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="67"/>
       <c r="F21" s="12">
         <v>1</v>
       </c>
@@ -4518,13 +4531,13 @@
     </row>
     <row r="22" spans="1:31" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -4589,13 +4602,13 @@
     </row>
     <row r="23" spans="1:31" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>58</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -4660,16 +4673,16 @@
     </row>
     <row r="24" spans="1:31" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>62</v>
       </c>
       <c r="F24" s="4">
         <v>6</v>
@@ -4683,7 +4696,7 @@
       <c r="I24" s="4">
         <v>3000</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="41">
         <v>1000</v>
       </c>
       <c r="K24" s="4">
@@ -4719,7 +4732,7 @@
       <c r="X24" s="4">
         <v>0</v>
       </c>
-      <c r="Z24" s="42"/>
+      <c r="Z24" s="41"/>
       <c r="AA24" s="4">
         <v>0</v>
       </c>
@@ -4741,11 +4754,11 @@
         <v>1230202</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="E25" s="45" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="C25" s="44"/>
+      <c r="E25" s="44" t="s">
+        <v>62</v>
       </c>
       <c r="F25" s="4">
         <v>6</v>
@@ -4759,7 +4772,7 @@
       <c r="I25" s="4">
         <v>1500</v>
       </c>
-      <c r="J25" s="41">
+      <c r="J25" s="40">
         <v>1</v>
       </c>
       <c r="K25" s="4">
@@ -4795,7 +4808,7 @@
       <c r="X25" s="4">
         <v>0</v>
       </c>
-      <c r="Z25" s="42"/>
+      <c r="Z25" s="41"/>
       <c r="AA25" s="4">
         <v>0</v>
       </c>
@@ -4817,10 +4830,10 @@
         <v>105010101</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>63</v>
+        <v>72</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>60</v>
       </c>
       <c r="F26" s="12">
         <v>1</v>
@@ -4893,10 +4906,10 @@
         <v>105010201</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>62</v>
+        <v>73</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>59</v>
       </c>
       <c r="F27" s="12">
         <v>7</v>
@@ -4968,11 +4981,11 @@
       <c r="A28" s="33">
         <v>105020101</v>
       </c>
-      <c r="B28" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>62</v>
+      <c r="B28" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>59</v>
       </c>
       <c r="F28" s="33">
         <v>9</v>
@@ -5033,16 +5046,16 @@
       </c>
     </row>
     <row r="29" spans="1:31" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="57">
+      <c r="A29" s="56">
         <v>105020102</v>
       </c>
-      <c r="B29" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="49">
+      <c r="B29" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="48">
         <v>4</v>
       </c>
       <c r="G29">
@@ -5109,87 +5122,87 @@
         <v>105020102</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="77" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="76">
+    <row r="30" spans="1:31" s="75" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="74">
         <v>301000101</v>
       </c>
-      <c r="B30" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="77">
-        <v>1</v>
-      </c>
-      <c r="G30" s="77">
+      <c r="B30" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="75">
+        <v>1</v>
+      </c>
+      <c r="G30" s="75">
         <v>2</v>
       </c>
-      <c r="H30" s="77">
+      <c r="H30" s="75">
         <v>40000</v>
       </c>
-      <c r="J30" s="77">
-        <v>0</v>
-      </c>
-      <c r="K30" s="77">
+      <c r="J30" s="75">
+        <v>0</v>
+      </c>
+      <c r="K30" s="75">
         <v>350</v>
       </c>
-      <c r="L30" s="77">
-        <v>0</v>
-      </c>
-      <c r="N30" s="77">
+      <c r="L30" s="75">
+        <v>0</v>
+      </c>
+      <c r="N30" s="75">
         <v>2</v>
       </c>
-      <c r="O30" s="77">
+      <c r="O30" s="75">
         <v>500</v>
       </c>
-      <c r="P30" s="77">
+      <c r="P30" s="75">
         <v>300</v>
       </c>
-      <c r="R30" s="77">
-        <v>1</v>
-      </c>
-      <c r="S30" s="77">
-        <v>0</v>
-      </c>
-      <c r="U30" s="77">
-        <v>0</v>
-      </c>
-      <c r="V30" s="77">
-        <v>0</v>
-      </c>
-      <c r="W30" s="77">
-        <v>0</v>
-      </c>
-      <c r="X30" s="77">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="77">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="77">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="77">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="77">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="77">
+      <c r="R30" s="75">
+        <v>1</v>
+      </c>
+      <c r="S30" s="75">
+        <v>0</v>
+      </c>
+      <c r="U30" s="75">
+        <v>0</v>
+      </c>
+      <c r="V30" s="75">
+        <v>0</v>
+      </c>
+      <c r="W30" s="75">
+        <v>0</v>
+      </c>
+      <c r="X30" s="75">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="75">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="75">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="75">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="75">
         <f t="shared" si="0"/>
         <v>301000101</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="53">
+      <c r="A31" s="52">
         <v>301000201</v>
       </c>
-      <c r="B31" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="53" t="s">
-        <v>80</v>
+      <c r="B31" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -5197,7 +5210,7 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31" s="53">
+      <c r="H31" s="52">
         <v>0</v>
       </c>
       <c r="I31">
@@ -5257,14 +5270,14 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="53">
+      <c r="A32" s="52">
         <v>301010101</v>
       </c>
-      <c r="B32" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>84</v>
+      <c r="B32" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>81</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -5330,14 +5343,14 @@
       </c>
     </row>
     <row r="33" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="53">
+      <c r="A33" s="52">
         <v>302000201</v>
       </c>
-      <c r="B33" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>80</v>
+      <c r="B33" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -5345,7 +5358,7 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33" s="53">
+      <c r="H33" s="52">
         <v>0</v>
       </c>
       <c r="I33"/>
@@ -5407,12 +5420,12 @@
         <v>303010101</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="49">
+        <v>74</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="48">
         <v>4</v>
       </c>
       <c r="G34">
@@ -5480,14 +5493,14 @@
       </c>
     </row>
     <row r="35" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="58">
+      <c r="A35" s="57">
         <v>505000103</v>
       </c>
-      <c r="B35" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="59" t="s">
-        <v>92</v>
+      <c r="B35" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>89</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -5554,594 +5567,598 @@
         <v>505000103</v>
       </c>
     </row>
-    <row r="36" spans="1:32" s="67" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="67">
+    <row r="36" spans="1:32" s="65" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="65">
         <v>127010101</v>
       </c>
-      <c r="B36" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="107">
+      <c r="B36" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="104">
         <v>9</v>
       </c>
-      <c r="G36" s="107">
+      <c r="G36" s="104">
         <v>2</v>
       </c>
-      <c r="H36" s="107">
+      <c r="H36" s="104">
         <v>50000</v>
       </c>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107">
-        <v>0</v>
-      </c>
-      <c r="K36" s="107">
+      <c r="I36" s="104"/>
+      <c r="J36" s="104">
+        <v>0</v>
+      </c>
+      <c r="K36" s="104">
         <v>200</v>
       </c>
-      <c r="L36" s="107">
-        <v>0</v>
-      </c>
-      <c r="M36" s="107"/>
-      <c r="N36" s="107">
+      <c r="L36" s="104">
+        <v>0</v>
+      </c>
+      <c r="M36" s="104"/>
+      <c r="N36" s="104">
         <v>2</v>
       </c>
-      <c r="O36" s="107">
+      <c r="O36" s="104">
         <v>500</v>
       </c>
-      <c r="P36" s="107">
+      <c r="P36" s="104">
         <v>300</v>
       </c>
-      <c r="Q36" s="107"/>
-      <c r="R36" s="107">
-        <v>0</v>
-      </c>
-      <c r="S36" s="107">
-        <v>0</v>
-      </c>
-      <c r="T36" s="107"/>
-      <c r="U36" s="107">
-        <v>0</v>
-      </c>
-      <c r="V36" s="107">
-        <v>0</v>
-      </c>
-      <c r="W36" s="107">
-        <v>0</v>
-      </c>
-      <c r="X36" s="107">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="107"/>
-      <c r="Z36" s="107"/>
-      <c r="AA36" s="107">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="107">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="107">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="107">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="107"/>
-    </row>
-    <row r="37" spans="1:32" s="89" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="90">
+      <c r="Q36" s="104"/>
+      <c r="R36" s="104">
+        <v>0</v>
+      </c>
+      <c r="S36" s="104">
+        <v>0</v>
+      </c>
+      <c r="T36" s="104"/>
+      <c r="U36" s="104">
+        <v>0</v>
+      </c>
+      <c r="V36" s="104">
+        <v>0</v>
+      </c>
+      <c r="W36" s="104">
+        <v>0</v>
+      </c>
+      <c r="X36" s="104">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="104"/>
+      <c r="Z36" s="104"/>
+      <c r="AA36" s="104">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="104">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="104">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="104">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="104"/>
+    </row>
+    <row r="37" spans="1:32" s="86" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="87">
         <v>321020101</v>
       </c>
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="105">
+        <v>4</v>
+      </c>
+      <c r="G37" s="106">
+        <v>2</v>
+      </c>
+      <c r="H37" s="106">
+        <v>0</v>
+      </c>
+      <c r="I37" s="106">
+        <v>500</v>
+      </c>
+      <c r="J37" s="106">
+        <v>0</v>
+      </c>
+      <c r="K37" s="93">
+        <v>500</v>
+      </c>
+      <c r="L37" s="93">
+        <v>100</v>
+      </c>
+      <c r="M37" s="93">
+        <v>1</v>
+      </c>
+      <c r="N37" s="93">
+        <v>2</v>
+      </c>
+      <c r="O37" s="94">
+        <v>3500</v>
+      </c>
+      <c r="P37" s="94">
+        <v>2500</v>
+      </c>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94">
+        <v>1</v>
+      </c>
+      <c r="S37" s="94">
+        <v>0</v>
+      </c>
+      <c r="T37" s="94"/>
+      <c r="U37" s="94">
+        <v>0</v>
+      </c>
+      <c r="V37" s="94">
+        <v>0</v>
+      </c>
+      <c r="W37" s="94">
+        <v>0</v>
+      </c>
+      <c r="X37" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="94"/>
+      <c r="Z37" s="94"/>
+      <c r="AA37" s="94">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="98">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="98">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="98">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="98">
+        <v>321020101</v>
+      </c>
+      <c r="AF37" s="98"/>
+    </row>
+    <row r="38" spans="1:32" s="88" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="88">
+        <v>322010101</v>
+      </c>
+      <c r="B38" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="99">
+        <v>1</v>
+      </c>
+      <c r="G38" s="99">
+        <v>2</v>
+      </c>
+      <c r="H38" s="99">
+        <v>2000</v>
+      </c>
+      <c r="I38" s="99">
+        <v>5000</v>
+      </c>
+      <c r="J38" s="99">
+        <v>2500</v>
+      </c>
+      <c r="K38" s="95">
+        <v>5000</v>
+      </c>
+      <c r="L38" s="95">
+        <v>0</v>
+      </c>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95">
+        <v>2</v>
+      </c>
+      <c r="O38" s="95">
+        <v>1000</v>
+      </c>
+      <c r="P38" s="95">
+        <v>1000</v>
+      </c>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="95">
+        <v>0</v>
+      </c>
+      <c r="S38" s="95">
+        <v>1</v>
+      </c>
+      <c r="T38" s="95"/>
+      <c r="U38" s="95">
+        <v>0</v>
+      </c>
+      <c r="V38" s="95">
+        <v>0</v>
+      </c>
+      <c r="W38" s="95">
+        <v>0</v>
+      </c>
+      <c r="X38" s="95">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="95"/>
+      <c r="Z38" s="95"/>
+      <c r="AA38" s="95">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="99">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="99">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="99">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="100">
+        <v>322010101</v>
+      </c>
+      <c r="AF38" s="99"/>
+    </row>
+    <row r="39" spans="1:32" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="88">
+        <v>323000101</v>
+      </c>
+      <c r="B39" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" s="108">
-        <v>4</v>
-      </c>
-      <c r="G37" s="109">
+      <c r="C39" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="102">
+        <v>1</v>
+      </c>
+      <c r="G39" s="102">
         <v>2</v>
       </c>
-      <c r="H37" s="109">
-        <v>0</v>
-      </c>
-      <c r="I37" s="109">
+      <c r="H39" s="99">
+        <v>40000</v>
+      </c>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102">
+        <v>0</v>
+      </c>
+      <c r="K39" s="96">
+        <v>350</v>
+      </c>
+      <c r="L39" s="96">
+        <v>0</v>
+      </c>
+      <c r="M39" s="96"/>
+      <c r="N39" s="96">
+        <v>2</v>
+      </c>
+      <c r="O39" s="97">
         <v>500</v>
       </c>
-      <c r="J37" s="109">
-        <v>0</v>
-      </c>
-      <c r="K37" s="96">
-        <v>500</v>
-      </c>
-      <c r="L37" s="96">
-        <v>100</v>
-      </c>
-      <c r="M37" s="96">
-        <v>1</v>
-      </c>
-      <c r="N37" s="96">
-        <v>2</v>
-      </c>
-      <c r="O37" s="97">
-        <v>3500</v>
-      </c>
-      <c r="P37" s="97">
-        <v>2500</v>
-      </c>
-      <c r="Q37" s="97"/>
-      <c r="R37" s="97">
-        <v>1</v>
-      </c>
-      <c r="S37" s="97">
-        <v>0</v>
-      </c>
-      <c r="T37" s="97"/>
-      <c r="U37" s="97">
-        <v>0</v>
-      </c>
-      <c r="V37" s="97">
-        <v>0</v>
-      </c>
-      <c r="W37" s="97">
-        <v>0</v>
-      </c>
-      <c r="X37" s="97">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="97"/>
-      <c r="Z37" s="97"/>
-      <c r="AA37" s="97">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="101">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="101">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="101">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="101">
-        <v>321020101</v>
-      </c>
-      <c r="AF37" s="101"/>
-    </row>
-    <row r="38" spans="1:32" s="91" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="91">
-        <v>322010101</v>
-      </c>
-      <c r="B38" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="F38" s="102">
-        <v>1</v>
-      </c>
-      <c r="G38" s="102">
-        <v>2</v>
-      </c>
-      <c r="H38" s="102">
-        <v>2000</v>
-      </c>
-      <c r="I38" s="102">
-        <v>5000</v>
-      </c>
-      <c r="J38" s="102">
-        <v>2500</v>
-      </c>
-      <c r="K38" s="98">
-        <v>5000</v>
-      </c>
-      <c r="L38" s="98">
-        <v>0</v>
-      </c>
-      <c r="M38" s="98"/>
-      <c r="N38" s="98">
-        <v>2</v>
-      </c>
-      <c r="O38" s="98">
-        <v>1000</v>
-      </c>
-      <c r="P38" s="98">
-        <v>1000</v>
-      </c>
-      <c r="Q38" s="98"/>
-      <c r="R38" s="98">
-        <v>0</v>
-      </c>
-      <c r="S38" s="98">
-        <v>1</v>
-      </c>
-      <c r="T38" s="98"/>
-      <c r="U38" s="98">
-        <v>0</v>
-      </c>
-      <c r="V38" s="98">
-        <v>0</v>
-      </c>
-      <c r="W38" s="98">
-        <v>0</v>
-      </c>
-      <c r="X38" s="98">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="98"/>
-      <c r="Z38" s="98"/>
-      <c r="AA38" s="98">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="102">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="102">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="102">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="103">
-        <v>322010101</v>
-      </c>
-      <c r="AF38" s="102"/>
-    </row>
-    <row r="39" spans="1:32" s="87" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="91">
-        <v>323000101</v>
-      </c>
-      <c r="B39" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="F39" s="105">
-        <v>1</v>
-      </c>
-      <c r="G39" s="105">
-        <v>2</v>
-      </c>
-      <c r="H39" s="102">
-        <v>40000</v>
-      </c>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105">
-        <v>0</v>
-      </c>
-      <c r="K39" s="99">
-        <v>350</v>
-      </c>
-      <c r="L39" s="99">
-        <v>0</v>
-      </c>
-      <c r="M39" s="99"/>
-      <c r="N39" s="99">
-        <v>2</v>
-      </c>
-      <c r="O39" s="100">
-        <v>500</v>
-      </c>
-      <c r="P39" s="100">
+      <c r="P39" s="97">
         <v>300</v>
       </c>
-      <c r="Q39" s="100"/>
-      <c r="R39" s="100">
-        <v>1</v>
-      </c>
-      <c r="S39" s="100">
-        <v>0</v>
-      </c>
-      <c r="T39" s="100"/>
-      <c r="U39" s="100">
-        <v>0</v>
-      </c>
-      <c r="V39" s="100">
-        <v>0</v>
-      </c>
-      <c r="W39" s="100">
-        <v>0</v>
-      </c>
-      <c r="X39" s="100">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="100"/>
-      <c r="Z39" s="100"/>
-      <c r="AA39" s="100">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="104">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="104">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="104">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="105">
+      <c r="Q39" s="97"/>
+      <c r="R39" s="97">
+        <v>1</v>
+      </c>
+      <c r="S39" s="97">
+        <v>0</v>
+      </c>
+      <c r="T39" s="97"/>
+      <c r="U39" s="97">
+        <v>0</v>
+      </c>
+      <c r="V39" s="97">
+        <v>0</v>
+      </c>
+      <c r="W39" s="97">
+        <v>0</v>
+      </c>
+      <c r="X39" s="97">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="97"/>
+      <c r="Z39" s="97"/>
+      <c r="AA39" s="97">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="101">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="101">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="102">
         <f t="shared" ref="AE39" si="2">A39</f>
         <v>323000101</v>
       </c>
-      <c r="AF39" s="104"/>
-    </row>
-    <row r="40" spans="1:32" s="91" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="91">
+      <c r="AF39" s="101"/>
+    </row>
+    <row r="40" spans="1:32" s="88" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="88">
         <v>323010101</v>
       </c>
-      <c r="B40" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="91" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" s="102">
+      <c r="B40" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" s="99">
         <v>6</v>
       </c>
-      <c r="G40" s="102">
+      <c r="G40" s="99">
         <v>2</v>
       </c>
-      <c r="H40" s="102">
-        <v>0</v>
-      </c>
-      <c r="I40" s="102">
+      <c r="H40" s="99">
+        <v>0</v>
+      </c>
+      <c r="I40" s="99">
+        <v>2000</v>
+      </c>
+      <c r="J40" s="99">
+        <v>0</v>
+      </c>
+      <c r="K40" s="95">
+        <v>2000</v>
+      </c>
+      <c r="L40" s="95">
+        <v>0</v>
+      </c>
+      <c r="M40" s="95">
+        <v>1</v>
+      </c>
+      <c r="N40" s="95">
+        <v>1</v>
+      </c>
+      <c r="O40" s="95">
         <v>3000</v>
       </c>
-      <c r="J40" s="102">
+      <c r="P40" s="95">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="95">
+        <v>1</v>
+      </c>
+      <c r="S40" s="95">
+        <v>1</v>
+      </c>
+      <c r="T40" s="95"/>
+      <c r="U40" s="95">
+        <v>0</v>
+      </c>
+      <c r="V40" s="95">
+        <v>0</v>
+      </c>
+      <c r="W40" s="95">
+        <v>0</v>
+      </c>
+      <c r="X40" s="95">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="95"/>
+      <c r="Z40" s="95"/>
+      <c r="AA40" s="95">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="99">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="99">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="99">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="100">
+        <v>323010101</v>
+      </c>
+      <c r="AF40" s="99"/>
+    </row>
+    <row r="41" spans="1:32" s="88" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="88">
+        <v>323010102</v>
+      </c>
+      <c r="B41" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="99">
+        <v>6</v>
+      </c>
+      <c r="G41" s="99">
+        <v>0</v>
+      </c>
+      <c r="H41" s="99">
+        <v>0</v>
+      </c>
+      <c r="I41" s="99">
+        <v>5000</v>
+      </c>
+      <c r="J41" s="99">
+        <v>0</v>
+      </c>
+      <c r="K41" s="95">
+        <v>5000</v>
+      </c>
+      <c r="L41" s="95">
+        <v>0</v>
+      </c>
+      <c r="M41" s="95">
+        <v>1</v>
+      </c>
+      <c r="N41" s="95">
+        <v>1</v>
+      </c>
+      <c r="O41" s="95">
+        <v>3000</v>
+      </c>
+      <c r="P41" s="95">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="95">
+        <v>0</v>
+      </c>
+      <c r="S41" s="95">
+        <v>1</v>
+      </c>
+      <c r="T41" s="95"/>
+      <c r="U41" s="95">
+        <v>0</v>
+      </c>
+      <c r="V41" s="95">
+        <v>0</v>
+      </c>
+      <c r="W41" s="95">
+        <v>0</v>
+      </c>
+      <c r="X41" s="95">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="95"/>
+      <c r="Z41" s="95"/>
+      <c r="AA41" s="95">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="99">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="99">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="99">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="100">
+        <v>323010101</v>
+      </c>
+      <c r="AF41" s="99"/>
+    </row>
+    <row r="42" spans="1:32" s="88" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="88">
+        <v>323020101</v>
+      </c>
+      <c r="B42" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="99">
+        <v>1</v>
+      </c>
+      <c r="G42" s="99">
+        <v>2</v>
+      </c>
+      <c r="H42" s="99">
+        <v>40000</v>
+      </c>
+      <c r="I42" s="99">
         <v>1000</v>
       </c>
-      <c r="K40" s="98">
+      <c r="J42" s="99">
+        <v>0</v>
+      </c>
+      <c r="K42" s="95">
+        <v>1000</v>
+      </c>
+      <c r="L42" s="95">
+        <v>0</v>
+      </c>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95">
+        <v>2</v>
+      </c>
+      <c r="O42" s="95">
         <v>2000</v>
       </c>
-      <c r="L40" s="98">
-        <v>300</v>
-      </c>
-      <c r="M40" s="98"/>
-      <c r="N40" s="98">
-        <v>1</v>
-      </c>
-      <c r="O40" s="98">
-        <v>5000</v>
-      </c>
-      <c r="P40" s="98">
+      <c r="P42" s="95">
         <v>1000</v>
       </c>
-      <c r="Q40" s="98"/>
-      <c r="R40" s="98">
-        <v>0</v>
-      </c>
-      <c r="S40" s="98">
-        <v>1</v>
-      </c>
-      <c r="T40" s="98"/>
-      <c r="U40" s="98">
-        <v>0</v>
-      </c>
-      <c r="V40" s="98">
-        <v>0</v>
-      </c>
-      <c r="W40" s="98">
-        <v>0</v>
-      </c>
-      <c r="X40" s="98">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="98"/>
-      <c r="Z40" s="98"/>
-      <c r="AA40" s="98">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="102">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="102">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="102">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="103">
-        <v>323010101</v>
-      </c>
-      <c r="AF40" s="102"/>
-    </row>
-    <row r="41" spans="1:32" s="91" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="91">
-        <v>323010102</v>
-      </c>
-      <c r="B41" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41" s="91" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="102">
-        <v>6</v>
-      </c>
-      <c r="G41" s="102">
-        <v>0</v>
-      </c>
-      <c r="H41" s="102">
-        <v>0</v>
-      </c>
-      <c r="I41" s="102">
-        <v>1500</v>
-      </c>
-      <c r="J41" s="102">
-        <v>1</v>
-      </c>
-      <c r="K41" s="98">
-        <v>0</v>
-      </c>
-      <c r="L41" s="98">
-        <v>0</v>
-      </c>
-      <c r="M41" s="98"/>
-      <c r="N41" s="98">
-        <v>1</v>
-      </c>
-      <c r="O41" s="98">
-        <v>100</v>
-      </c>
-      <c r="P41" s="98">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="98"/>
-      <c r="R41" s="98">
-        <v>0</v>
-      </c>
-      <c r="S41" s="98">
-        <v>1</v>
-      </c>
-      <c r="T41" s="98"/>
-      <c r="U41" s="98">
-        <v>0</v>
-      </c>
-      <c r="V41" s="98">
-        <v>0</v>
-      </c>
-      <c r="W41" s="98">
-        <v>0</v>
-      </c>
-      <c r="X41" s="98">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="98"/>
-      <c r="Z41" s="98"/>
-      <c r="AA41" s="98">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="102">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="102">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="102">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="103">
-        <v>323010101</v>
-      </c>
-      <c r="AF41" s="102"/>
-    </row>
-    <row r="42" spans="1:32" s="91" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="91">
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95">
+        <v>0</v>
+      </c>
+      <c r="S42" s="95">
+        <v>1</v>
+      </c>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95">
+        <v>0</v>
+      </c>
+      <c r="V42" s="95">
+        <v>0</v>
+      </c>
+      <c r="W42" s="95">
+        <v>0</v>
+      </c>
+      <c r="X42" s="95">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="95"/>
+      <c r="Z42" s="95"/>
+      <c r="AA42" s="95">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="99">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="99">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="99">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="100">
         <v>323020101</v>
       </c>
-      <c r="B42" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="F42" s="102">
-        <v>1</v>
-      </c>
-      <c r="G42" s="102">
-        <v>2</v>
-      </c>
-      <c r="H42" s="102">
-        <v>40000</v>
-      </c>
-      <c r="I42" s="102">
-        <v>1000</v>
-      </c>
-      <c r="J42" s="102">
-        <v>0</v>
-      </c>
-      <c r="K42" s="98">
-        <v>1000</v>
-      </c>
-      <c r="L42" s="98">
-        <v>0</v>
-      </c>
-      <c r="M42" s="98"/>
-      <c r="N42" s="98">
-        <v>2</v>
-      </c>
-      <c r="O42" s="98">
-        <v>2000</v>
-      </c>
-      <c r="P42" s="98">
-        <v>1000</v>
-      </c>
-      <c r="Q42" s="98"/>
-      <c r="R42" s="98">
-        <v>0</v>
-      </c>
-      <c r="S42" s="98">
-        <v>1</v>
-      </c>
-      <c r="T42" s="98"/>
-      <c r="U42" s="98">
-        <v>0</v>
-      </c>
-      <c r="V42" s="98">
-        <v>0</v>
-      </c>
-      <c r="W42" s="98">
-        <v>0</v>
-      </c>
-      <c r="X42" s="98">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="98"/>
-      <c r="Z42" s="98"/>
-      <c r="AA42" s="98">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="102">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="102">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="102">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="103">
-        <v>323020101</v>
-      </c>
-      <c r="AF42" s="102"/>
+      <c r="AF42" s="99"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G43"/>
       <c r="I43"/>
       <c r="J43"/>
-      <c r="AB43" s="106"/>
-      <c r="AC43" s="106"/>
-      <c r="AD43" s="106"/>
-      <c r="AE43" s="106"/>
-      <c r="AF43" s="106"/>
+      <c r="AB43" s="103"/>
+      <c r="AC43" s="103"/>
+      <c r="AD43" s="103"/>
+      <c r="AE43" s="103"/>
+      <c r="AF43" s="103"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G44"/>
       <c r="I44"/>
       <c r="J44"/>
-      <c r="AB44" s="106"/>
-      <c r="AC44" s="106"/>
-      <c r="AD44" s="106"/>
-      <c r="AE44" s="106"/>
-      <c r="AF44" s="106"/>
+      <c r="AB44" s="103"/>
+      <c r="AC44" s="103"/>
+      <c r="AD44" s="103"/>
+      <c r="AE44" s="103"/>
+      <c r="AF44" s="103"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G45"/>
       <c r="I45"/>
       <c r="J45"/>
-      <c r="AB45" s="106"/>
-      <c r="AC45" s="106"/>
-      <c r="AD45" s="106"/>
-      <c r="AE45" s="106"/>
-      <c r="AF45" s="106"/>
+      <c r="AB45" s="103"/>
+      <c r="AC45" s="103"/>
+      <c r="AD45" s="103"/>
+      <c r="AE45" s="103"/>
+      <c r="AF45" s="103"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G46"/>
@@ -6254,7 +6271,7 @@
       <c r="J67" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="54" type="noConversion"/>
+  <phoneticPr fontId="52" type="noConversion"/>
   <conditionalFormatting sqref="Z4:AF4 K4:X4 A4:F4 H4 AH4:XFD4">
     <cfRule type="duplicateValues" dxfId="21" priority="82"/>
   </conditionalFormatting>
